--- a/Exhibition.xlsx
+++ b/Exhibition.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangjin/web_renewal/hijonam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22852C39-A970-F041-AB84-C6741A9CE76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A2F9F6-F439-5746-94E4-57E26AB4C651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="2500" windowWidth="27780" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7620" yWindow="1900" windowWidth="27780" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="98">
   <si>
     <t>category</t>
   </si>
@@ -136,9 +149,6 @@
     <t>Saphira &amp; Ventura Gallery_07_2022.jpg</t>
   </si>
   <si>
-    <t>흰물결갤러리</t>
-  </si>
-  <si>
     <t>흰물결갤러리01</t>
   </si>
   <si>
@@ -236,6 +246,106 @@
   </si>
   <si>
     <t>2022.05.31</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thessaloniki, Greece</t>
+  </si>
+  <si>
+    <t>Beijing, China</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New York, NY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seoul, Korea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incheon, Korea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.11.16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.11.20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천아시아아트쇼_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천아시아아트쇼_2</t>
+  </si>
+  <si>
+    <t>인천아시아아트쇼_3</t>
+  </si>
+  <si>
+    <t>인천아시아아트쇼_4</t>
+  </si>
+  <si>
+    <t>인천아시아아트쇼_5</t>
+  </si>
+  <si>
+    <t>인천아시아아트쇼_6</t>
+  </si>
+  <si>
+    <t>인천아시아아트쇼_7</t>
+  </si>
+  <si>
+    <t>인천아시아아트쇼_8</t>
+  </si>
+  <si>
+    <t>인천아시아아트쇼_9</t>
+  </si>
+  <si>
+    <t>인천아시아아트쇼_10</t>
+  </si>
+  <si>
+    <t>인천아시아아트쇼_1.jpeg</t>
+  </si>
+  <si>
+    <t>인천아시아아트쇼_2.jpeg</t>
+  </si>
+  <si>
+    <t>인천아시아아트쇼_3.jpeg</t>
+  </si>
+  <si>
+    <t>인천아시아아트쇼_4.jpeg</t>
+  </si>
+  <si>
+    <t>인천아시아아트쇼_5.jpeg</t>
+  </si>
+  <si>
+    <t>인천아시아아트쇼_6.jpeg</t>
+  </si>
+  <si>
+    <t>인천아시아아트쇼_7.jpeg</t>
+  </si>
+  <si>
+    <t>인천아시아아트쇼_8.jpeg</t>
+  </si>
+  <si>
+    <t>인천아시아아트쇼_9.jpeg</t>
+  </si>
+  <si>
+    <t>인천아시아아트쇼_10.jpeg</t>
+  </si>
+  <si>
+    <t>Songdo Convensia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>White Hall Gallery</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -243,7 +353,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +379,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2C3E50"/>
+      <name val="Avenir"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -298,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -315,6 +431,8 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -620,11 +738,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -633,17 +751,18 @@
     <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" customHeight="1">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -651,17 +770,20 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25" customHeight="1">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -674,17 +796,20 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>66</v>
+      <c r="E2" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.25" customHeight="1">
+    <row r="3" spans="1:8" ht="17.25" customHeight="1">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -697,17 +822,20 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>66</v>
+      <c r="E3" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.25" customHeight="1">
+    <row r="4" spans="1:8" ht="17.25" customHeight="1">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -720,17 +848,20 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>66</v>
+      <c r="E4" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" customHeight="1">
+    <row r="5" spans="1:8" ht="17.25" customHeight="1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -743,17 +874,20 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>66</v>
+      <c r="E5" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.25" customHeight="1">
+    <row r="6" spans="1:8" ht="17.25" customHeight="1">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -766,17 +900,20 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>66</v>
+      <c r="E6" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.25" customHeight="1">
+    <row r="7" spans="1:8" ht="17.25" customHeight="1">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -789,17 +926,20 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.25" customHeight="1">
+    <row r="8" spans="1:8" ht="17.25" customHeight="1">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -812,17 +952,20 @@
       <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.25" customHeight="1">
+    <row r="9" spans="1:8" ht="17.25" customHeight="1">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -835,17 +978,20 @@
       <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.25" customHeight="1">
+    <row r="10" spans="1:8" ht="17.25" customHeight="1">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -858,17 +1004,20 @@
       <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.25" customHeight="1">
+    <row r="11" spans="1:8" ht="17.25" customHeight="1">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -881,17 +1030,20 @@
       <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.25" customHeight="1">
+    <row r="12" spans="1:8" ht="17.25" customHeight="1">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -904,17 +1056,20 @@
       <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.25" customHeight="1">
+    <row r="13" spans="1:8" ht="17.25" customHeight="1">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -927,17 +1082,20 @@
       <c r="D13" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.25" customHeight="1">
+    <row r="14" spans="1:8" ht="17.25" customHeight="1">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -950,17 +1108,20 @@
       <c r="D14" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17.25" customHeight="1">
+    <row r="15" spans="1:8" ht="17.25" customHeight="1">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -973,17 +1134,20 @@
       <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17.25" customHeight="1">
+    <row r="16" spans="1:8" ht="17.25" customHeight="1">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -996,244 +1160,537 @@
       <c r="D16" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17.25" customHeight="1">
+    <row r="17" spans="1:8" ht="17.25" customHeight="1">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="C17" s="3">
         <v>15</v>
       </c>
       <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="17.25" customHeight="1">
+    </row>
+    <row r="18" spans="1:8" ht="17.25" customHeight="1">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="C18" s="3">
         <v>16</v>
       </c>
       <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="17.25" customHeight="1">
+    </row>
+    <row r="19" spans="1:8" ht="17.25" customHeight="1">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="C19" s="3">
         <v>17</v>
       </c>
       <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="17.25" customHeight="1">
+    </row>
+    <row r="20" spans="1:8" ht="17.25" customHeight="1">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="C20" s="3">
         <v>18</v>
       </c>
       <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="17.25" customHeight="1">
+    </row>
+    <row r="21" spans="1:8" ht="17.25" customHeight="1">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="C21" s="3">
         <v>19</v>
       </c>
       <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="17.25" customHeight="1">
+    </row>
+    <row r="22" spans="1:8" ht="17.25" customHeight="1">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="C22" s="3">
         <v>20</v>
       </c>
       <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="17.25" customHeight="1">
+    </row>
+    <row r="23" spans="1:8" ht="17.25" customHeight="1">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="C23" s="3">
         <v>21</v>
       </c>
       <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="17.25" customHeight="1">
+    </row>
+    <row r="24" spans="1:8" ht="17.25" customHeight="1">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="C24" s="3">
         <v>22</v>
       </c>
       <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="17.25" customHeight="1">
+    </row>
+    <row r="25" spans="1:8" ht="17.25" customHeight="1">
       <c r="A25" t="s">
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="C25" s="3">
         <v>23</v>
       </c>
       <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="17.25" customHeight="1">
+    </row>
+    <row r="26" spans="1:8" ht="17.25" customHeight="1">
       <c r="A26" t="s">
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="C26" s="3">
         <v>24</v>
       </c>
       <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" t="s">
-        <v>58</v>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="3">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="3">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="3">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="3">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="3">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="3">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="3">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="3">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="3">
+        <v>33</v>
+      </c>
+      <c r="D35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="3">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
